--- a/Data/WillingnessToBuy_PredictedProb_Results.xlsx
+++ b/Data/WillingnessToBuy_PredictedProb_Results.xlsx
@@ -1,22 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D8DE3-7B2B-4ED5-9FB3-3F8FAEF3E6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PredictedProb_byDiet" sheetId="1" r:id="rId1"/>
     <sheet name="TypeIII_LR_Tests" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>CI_low</t>
+  </si>
+  <si>
+    <t>CI_high</t>
+  </si>
+  <si>
+    <t>CI_low_pct</t>
+  </si>
+  <si>
+    <t>CI_high_pct</t>
+  </si>
+  <si>
+    <t>pct_ci</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>78.7% (61.4–89.6)</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>81.3% (64.1–91.3)</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>84.2% (67.6–93.2)</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>68.8% (50.5–82.7)</t>
+  </si>
+  <si>
+    <t>LR Chisq</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>% WTB</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,10 +139,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -64,13 +159,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -108,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -142,6 +245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -176,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -351,190 +456,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3"/>
+    <col min="6" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>diet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prob</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CI_low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CI_low_pct</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high_pct</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pct_ci</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0.786923256663483</v>
-      </c>
-      <c r="C2">
-        <v>0.07201116674744591</v>
-      </c>
-      <c r="D2">
-        <v>0.6141369282026575</v>
-      </c>
-      <c r="E2">
-        <v>0.8955024489767562</v>
-      </c>
-      <c r="F2">
-        <v>78.6923256663483</v>
-      </c>
-      <c r="G2">
-        <v>61.41369282026575</v>
-      </c>
-      <c r="H2">
-        <v>89.55024489767563</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>78.7% (61.4–89.6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>0.8126580577418767</v>
-      </c>
-      <c r="C3">
-        <v>0.06900816393719461</v>
-      </c>
-      <c r="D3">
-        <v>0.6408328418185523</v>
-      </c>
-      <c r="E3">
-        <v>0.9133916937852958</v>
-      </c>
-      <c r="F3">
-        <v>81.26580577418767</v>
-      </c>
-      <c r="G3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.78692325666348295</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.2011166747445912E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.61413692820265753</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.89550244897675624</v>
+      </c>
+      <c r="F2" s="4">
+        <v>78.692325666348296</v>
+      </c>
+      <c r="G2" s="3">
+        <v>61.413692820265751</v>
+      </c>
+      <c r="H2" s="3">
+        <v>89.550244897675626</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.81265805774187672</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.9008163937194611E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.64083284181855227</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.91339169378529583</v>
+      </c>
+      <c r="F3" s="4">
+        <v>81.265805774187669</v>
+      </c>
+      <c r="G3" s="3">
         <v>64.08328418185522</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>91.33916937852959</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>81.3% (64.1–91.3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>0.8420096833794996</v>
-      </c>
-      <c r="C4">
-        <v>0.06373616242208198</v>
-      </c>
-      <c r="D4">
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.84200968337949955</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.3736162422081979E-2</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.6757290346471394</v>
       </c>
-      <c r="E4">
-        <v>0.931649185970999</v>
-      </c>
-      <c r="F4">
-        <v>84.20096833794996</v>
-      </c>
-      <c r="G4">
-        <v>67.57290346471395</v>
-      </c>
-      <c r="H4">
-        <v>93.1649185970999</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>84.2% (67.6–93.2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="B5">
+      <c r="E4" s="3">
+        <v>0.93164918597099899</v>
+      </c>
+      <c r="F4" s="4">
+        <v>84.200968337949959</v>
+      </c>
+      <c r="G4" s="3">
+        <v>67.572903464713946</v>
+      </c>
+      <c r="H4" s="3">
+        <v>93.164918597099899</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.6884477344369716</v>
       </c>
-      <c r="C5">
-        <v>0.08443887888317463</v>
-      </c>
-      <c r="D5">
-        <v>0.5053194528312961</v>
-      </c>
-      <c r="E5">
-        <v>0.8269932569169688</v>
-      </c>
-      <c r="F5">
-        <v>68.84477344369716</v>
-      </c>
-      <c r="G5">
-        <v>50.53194528312961</v>
-      </c>
-      <c r="H5">
-        <v>82.69932569169688</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>68.8% (50.5–82.7)</t>
-        </is>
+      <c r="C5" s="3">
+        <v>8.4438878883174626E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.50531945283129609</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.82699325691696879</v>
+      </c>
+      <c r="F5" s="4">
+        <v>68.844773443697164</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50.531945283129609</v>
+      </c>
+      <c r="H5" s="3">
+        <v>82.699325691696885</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -543,81 +623,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>LR Chisq</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Df</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;Chisq)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>2.448484337668475</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2.4484843376684751</v>
+      </c>
+      <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0.4846730942875326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>diet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.01971121852292868</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="3">
+        <v>0.48467309428753258</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1.9711218522928679E-2</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0.8883466068260674</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>9.48240181666938</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="3">
+        <v>0.88834660682606736</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>9.4824018166693804</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>0.008728158171267554</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
+      <c r="C4" s="3">
+        <v>8.7281581712675537E-3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
